--- a/data/line transects/2_O_reef front/all O reef front.xlsx
+++ b/data/line transects/2_O_reef front/all O reef front.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kerry\Desktop\Master-thesis\data\line transects\2_O_reef front\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kerry\Desktop\Master-thesis R\data\line transects\2_O_reef front\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB78B5-2095-4FF7-9A7E-10327F4303BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FAE7E6-12BB-4A69-AFBA-24A8DA92E530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBEBC815-0E5C-45F3-B515-3D8368C113DF}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{FBEBC815-0E5C-45F3-B515-3D8368C113DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,16 +513,20 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -597,7 +601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -674,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -747,11 +751,11 @@
       <c r="X3" s="1">
         <v>0</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -828,7 +832,7 @@
         <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -905,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -982,7 +986,7 @@
         <v>1.8867924528301887</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1136,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1240,7 +1244,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
